--- a/results/scrn_dictionary.xlsx
+++ b/results/scrn_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caop/Downloads/PLUS-Comorbidity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/al8xi8/Documents/GitHub/lcrisks_simulation/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40E7946D-EE4B-A24B-A6C2-2CA762500C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A6FC5-D409-3F4C-BBF4-A562C0D4F382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="5560" windowWidth="27240" windowHeight="16440" xr2:uid="{B344D3DE-8A67-DB44-928D-568162850B7A}"/>
+    <workbookView xWindow="2880" yWindow="5340" windowWidth="27240" windowHeight="16440" xr2:uid="{B344D3DE-8A67-DB44-928D-568162850B7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E14A553-BD09-D34A-847A-008E1F3A0C80}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,9 +469,16 @@
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="30.5" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
